--- a/pred_ohlcv/54_21/2020-01-23 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>511.3711982797791</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>511.3711982797791</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-184.6059017202209</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-184.6059017202209</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-192.8148017202209</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-217.7070017202209</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-352.7070017202209</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-386.5063017202209</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-3875.381201720221</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-6506.157901720221</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-6503.157901720221</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-9794.52930172022</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-9907.289201720219</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-9906.289201720219</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-12074.54800172022</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-12073.54800172022</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-12073.54800172022</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-12075.54800172022</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-12075.54800172022</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-13074.00780172022</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-14124.00780172022</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-14977.18770172022</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-14976.18868921199</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-14890.86518921199</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-16024.34318921199</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-15824.34318921199</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-15824.34318921199</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-16627.20578921199</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-16557.19258921199</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-16553.99258921199</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-18967.15291253719</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-19267.15291253719</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-20838.39571253719</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-20125.98211253719</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-19090.96571253719</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-18324.71506789684</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-18727.84676789684</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-19890.98676789684</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-19824.79696789684</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-19824.79696789684</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-19323.56496789684</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-21243.75826789684</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-20402.89406789684</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-20402.89406789684</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-20254.89556789684</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-20227.98551771728</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-20227.98551771728</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-20227.98551771728</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-20227.98551771728</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-20227.98551771728</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-20227.98551771728</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-21333.98511771728</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-20893.98831771728</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-21059.19691771728</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-21059.19691771728</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-20957.50361771728</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-20957.50361771728</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-20957.50361771728</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-20957.50361771728</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-20957.50361771728</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-20957.50361771728</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-20757.30671771728</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-18915.22422704015</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-18910.10372704015</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-18920.10372704015</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-18919.93372704015</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-18376.86622704015</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-20185.93802704015</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-20185.93802704015</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-20185.93802704015</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-20158.13802704015</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-19428.91582704015</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-19428.91582704015</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-19969.55632704014</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-20456.79492704014</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-21571.64712704015</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-21571.64712704015</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-21571.64712704015</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-21571.64712704015</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-21571.64712704015</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-21571.64712704015</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-21591.64712704015</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-21591.33712704014</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-21594.63712704014</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-21563.33932704014</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-21563.33932704014</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-21563.33932704014</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-22450.41422704014</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-21662.00602704014</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-23314.60982704014</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-23279.50852704014</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-23279.50852704014</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-23279.50852704014</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-23279.50852704014</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-23279.50852704014</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-23279.50852704014</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-22087.79062704014</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-22125.80202704014</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-22125.80202704014</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-22034.84122704014</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-22034.84122704014</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-22034.84122704014</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-20637.66382704014</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-20637.66382704014</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-20502.56462704014</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-20504.56462704014</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-20487.72962704014</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-20487.72962704014</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-20487.72962704014</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-20487.72962704014</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-20475.17452704014</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-20475.17452704014</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-21124.18632704014</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-21121.18632704014</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-20984.61692704014</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-22258.59042704014</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-21101.20702704014</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-21133.70462704014</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-19827.52922704014</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-19656.35272704014</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-24973.11232704014</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-26715.53402704014</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-23975.46042704014</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-23967.23722704014</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-21667.45222704014</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-23018.50532704014</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-24294.86152704014</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-24396.32172704013</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-23932.17762704013</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-26856.18194751932</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-25928.12594751932</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-24509.96634751932</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-24692.47484751932</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-24872.04434751932</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-25469.42164751932</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-25717.04184751932</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-25717.04184751932</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-25618.32264751932</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>511.3711982797791</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>511.3711982797791</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-184.6059017202209</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-184.6059017202209</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-192.8148017202209</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-217.7070017202209</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-3875.381201720221</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-5575.521501720221</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-6506.157901720221</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-6503.157901720221</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-9906.289201720219</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-12074.54800172022</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-12073.54800172022</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-12073.54800172022</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-12075.54800172022</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-12075.54800172022</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-13074.00780172022</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-14124.00780172022</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-14977.18770172022</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-14976.18868921199</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-14890.86518921199</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-16024.34318921199</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-15824.34318921199</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-15824.34318921199</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-16627.20578921199</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-16557.19258921199</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-16553.99258921199</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-16603.99258921199</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-16653.99258921199</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-16653.99258921199</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-15053.26188921199</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-15053.06188921199</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-17056.72070360047</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-17241.60640360047</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-17161.69120360047</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-17213.69120360047</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-17670.69120360047</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-17669.69120360047</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-17988.46660360047</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-17880.63540360047</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-18480.63540360047</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-18180.63540360047</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-17861.77730360047</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-17861.77730360047</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-17829.77730360047</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-17503.01760360047</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-19003.01760360047</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-19062.61640360047</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-19671.19330360047</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-18749.1444125372</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-18781.6425125372</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-18867.1724125372</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-21517.1556125372</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-21871.3636125372</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-18228.93481253719</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-18228.93481253719</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-18229.93481253719</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-18229.93481253719</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-18229.93481253719</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-18229.93481253719</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-17698.80361253719</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-17729.72861253719</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-18947.47386789684</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-17347.47386789684</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-17273.89371771728</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-18926.52001771728</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-19294.37981771728</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-19294.37981771728</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-19655.22221771728</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-20855.63691771728</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-19078.99762704015</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-18887.71192704015</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-18910.10372704015</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-18282.39252704015</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-18294.48662704015</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-19428.91582704015</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-19428.91582704015</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-23314.60982704014</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-23279.50852704014</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-20984.61692704014</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-22201.83792704014</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-22258.59042704014</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-21101.20702704014</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-19656.35272704014</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-24973.11232704014</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-26715.53402704014</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-23975.46042704014</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-23967.23722704014</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-23174.07772704014</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-23174.07772704014</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-23174.07772704014</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-21667.45222704014</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-21667.45222704014</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-23018.50532704014</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-24294.86152704014</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-24448.09782704014</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-24459.81462704013</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-23931.83792704013</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-23932.17762704013</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-23942.17762704013</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-23928.17762704013</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-23928.17762704013</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-23928.17762704013</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-23928.17762704013</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-25986.52242704013</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-25970.18789584118</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-25971.71339584118</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-27559.71654751932</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-27499.58764751932</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-27661.08044751932</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-27661.08044751932</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-27661.08044751932</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-26876.26294751932</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-26892.26294751932</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-26903.45954751932</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-26916.72764751932</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-26916.72764751932</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-26939.60284751932</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-26255.18194751932</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-26255.18194751932</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-26254.18194751932</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-26257.18194751932</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-26857.18194751932</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-26856.18194751932</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-26870.66734751932</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-25928.12594751932</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-25764.22514751932</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-25927.62964751932</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-25963.80004751932</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-23653.35894751932</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-24204.56554751932</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-24104.56554751932</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-24104.56554751932</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-24104.56554751932</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-24114.56554751932</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-24427.79184751932</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-24427.79184751932</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-24532.24934751932</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-24496.96334751932</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-24509.96634751932</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-24509.96634751932</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-24509.96634751932</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-24633.77864751932</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-24692.47484751932</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-24872.04434751932</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-25471.42164751932</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-25465.42164751932</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-25469.42164751932</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-25472.42164751932</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-25717.04184751932</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-25717.04184751932</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-25618.32264751932</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
